--- a/ColorComparason.xlsx
+++ b/ColorComparason.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipaul\Documents\ISIM\ISIM-color-senseor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppfenninger\Documents\GitHub\ISIM-color-senseor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="ColorComparason" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R(sensed)</t>
   </si>
   <si>
     <t xml:space="preserve"> G</t>
   </si>
   <si>
     <t xml:space="preserve"> B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R(scanned)</t>
   </si>
   <si>
     <t>White</t>
@@ -56,12 +50,27 @@
   <si>
     <t>Purple</t>
   </si>
+  <si>
+    <t xml:space="preserve"> R</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +205,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Economica"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Economica"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +479,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1F24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69BD45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA271E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73B078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADB0A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3954A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF823B5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AEEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8624B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC008B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD54E5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD59D96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -577,6 +667,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -622,22 +761,56 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -687,16 +860,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FFFEFEFE"/>
-      <color rgb="FF997CBE"/>
-      <color rgb="FFF8FF93"/>
-      <color rgb="FFFDD673"/>
-      <color rgb="FF4E9176"/>
-      <color rgb="FFF15F72"/>
-      <color rgb="FF4B77AF"/>
-      <color rgb="FFE97D9F"/>
-      <color rgb="FFFFAB81"/>
+      <color rgb="FFD59D96"/>
+      <color rgb="FFFFFFF0"/>
+      <color rgb="FFD54E5A"/>
+      <color rgb="FFEC008B"/>
+      <color rgb="FFF8624B"/>
+      <color rgb="FF00AEEF"/>
+      <color rgb="FF823B5A"/>
+      <color rgb="FF3954A3"/>
+      <color rgb="FFADB0A5"/>
+      <color rgb="FF73B078"/>
     </mruColors>
   </colors>
   <extLst>
@@ -973,199 +1146,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="2">
+        <v>255</v>
+      </c>
+      <c r="C3" s="2">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2">
+        <v>255</v>
+      </c>
+      <c r="E3" s="17">
+        <v>254</v>
+      </c>
+      <c r="F3" s="3">
+        <v>254</v>
+      </c>
+      <c r="G3" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
+      <c r="B4" s="4">
+        <v>215</v>
+      </c>
+      <c r="C4" s="4">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4">
+        <v>101</v>
+      </c>
+      <c r="E4" s="18">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5">
+        <v>119</v>
+      </c>
+      <c r="G4" s="5">
+        <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B5" s="6">
         <v>255</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C5" s="6">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6">
+        <v>115</v>
+      </c>
+      <c r="E5" s="19">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>212</v>
+      </c>
+      <c r="C6" s="8">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8">
+        <v>86</v>
+      </c>
+      <c r="E6" s="20">
+        <v>78</v>
+      </c>
+      <c r="F6" s="9">
+        <v>145</v>
+      </c>
+      <c r="G6" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10">
         <v>255</v>
       </c>
-      <c r="D2" s="14">
+      <c r="C7" s="10">
+        <v>130</v>
+      </c>
+      <c r="D7" s="10">
+        <v>120</v>
+      </c>
+      <c r="E7" s="21">
+        <v>253</v>
+      </c>
+      <c r="F7" s="11">
+        <v>214</v>
+      </c>
+      <c r="G7" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>225</v>
+      </c>
+      <c r="C8" s="12">
+        <v>171</v>
+      </c>
+      <c r="D8" s="12">
+        <v>129</v>
+      </c>
+      <c r="E8" s="22">
+        <v>248</v>
+      </c>
+      <c r="F8" s="13">
         <v>255</v>
       </c>
-      <c r="E2" s="13">
-        <v>254</v>
-      </c>
-      <c r="F2" s="13">
-        <v>254</v>
-      </c>
-      <c r="G2" s="13">
-        <v>254</v>
+      <c r="G8" s="13">
+        <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14">
+        <v>233</v>
+      </c>
+      <c r="C9" s="14">
+        <v>125</v>
+      </c>
+      <c r="D9" s="14">
+        <v>159</v>
+      </c>
+      <c r="E9" s="23">
+        <v>153</v>
+      </c>
+      <c r="F9" s="15">
+        <v>124</v>
+      </c>
+      <c r="G9" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="32">
+        <v>218</v>
+      </c>
+      <c r="C10" s="32">
+        <v>39</v>
+      </c>
+      <c r="D10" s="32">
+        <v>30</v>
+      </c>
+      <c r="E10" s="29">
+        <v>237</v>
+      </c>
+      <c r="F10" s="29">
+        <v>31</v>
+      </c>
+      <c r="G10" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>215</v>
-      </c>
-      <c r="C3" s="1">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1">
-        <v>101</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B11" s="33">
+        <v>115</v>
+      </c>
+      <c r="C11" s="33">
+        <v>176</v>
+      </c>
+      <c r="D11" s="33">
+        <v>120</v>
+      </c>
+      <c r="E11" s="30">
+        <v>105</v>
+      </c>
+      <c r="F11" s="31">
+        <v>189</v>
+      </c>
+      <c r="G11" s="31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="34">
+        <v>173</v>
+      </c>
+      <c r="C12" s="34">
+        <v>176</v>
+      </c>
+      <c r="D12" s="34">
+        <v>165</v>
+      </c>
+      <c r="E12" s="35">
+        <v>57</v>
+      </c>
+      <c r="F12" s="36">
+        <v>84</v>
+      </c>
+      <c r="G12" s="36">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="37">
+        <v>130</v>
+      </c>
+      <c r="C13" s="37">
+        <v>59</v>
+      </c>
+      <c r="D13" s="37">
+        <v>90</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>174</v>
+      </c>
+      <c r="G13" s="39">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="40">
+        <v>248</v>
+      </c>
+      <c r="C14" s="40">
+        <v>98</v>
+      </c>
+      <c r="D14" s="40">
         <v>75</v>
       </c>
-      <c r="F3" s="7">
-        <v>119</v>
-      </c>
-      <c r="G3" s="7">
-        <v>175</v>
+      <c r="E14" s="41">
+        <v>236</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="43">
+        <v>213</v>
+      </c>
+      <c r="C15" s="43">
+        <v>78</v>
+      </c>
+      <c r="D15" s="43">
+        <v>90</v>
+      </c>
+      <c r="E15" s="23">
+        <v>153</v>
+      </c>
+      <c r="F15" s="15">
+        <v>124</v>
+      </c>
+      <c r="G15" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>255</v>
-      </c>
-      <c r="C4" s="2">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B16" s="44">
+        <v>213</v>
+      </c>
+      <c r="C16" s="44">
+        <v>157</v>
+      </c>
+      <c r="D16" s="44">
+        <v>150</v>
+      </c>
+      <c r="E16" s="21">
+        <v>253</v>
+      </c>
+      <c r="F16" s="11">
+        <v>214</v>
+      </c>
+      <c r="G16" s="11">
         <v>115</v>
-      </c>
-      <c r="E4" s="8">
-        <v>241</v>
-      </c>
-      <c r="F4" s="8">
-        <v>95</v>
-      </c>
-      <c r="G4" s="8">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>212</v>
-      </c>
-      <c r="C5" s="3">
-        <v>106</v>
-      </c>
-      <c r="D5" s="3">
-        <v>86</v>
-      </c>
-      <c r="E5" s="9">
-        <v>78</v>
-      </c>
-      <c r="F5" s="9">
-        <v>145</v>
-      </c>
-      <c r="G5" s="9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>255</v>
-      </c>
-      <c r="C6" s="4">
-        <v>130</v>
-      </c>
-      <c r="D6" s="4">
-        <v>120</v>
-      </c>
-      <c r="E6" s="10">
-        <v>253</v>
-      </c>
-      <c r="F6" s="10">
-        <v>214</v>
-      </c>
-      <c r="G6" s="10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>225</v>
-      </c>
-      <c r="C7" s="5">
-        <v>171</v>
-      </c>
-      <c r="D7" s="5">
-        <v>129</v>
-      </c>
-      <c r="E7" s="11">
-        <v>248</v>
-      </c>
-      <c r="F7" s="11">
-        <v>255</v>
-      </c>
-      <c r="G7" s="11">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6">
-        <v>233</v>
-      </c>
-      <c r="C8" s="6">
-        <v>125</v>
-      </c>
-      <c r="D8" s="6">
-        <v>159</v>
-      </c>
-      <c r="E8" s="12">
-        <v>153</v>
-      </c>
-      <c r="F8" s="12">
-        <v>124</v>
-      </c>
-      <c r="G8" s="12">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>